--- a/output/1Y_P70_1VAL-D.xlsx
+++ b/output/1Y_P70_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.6132</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>567.756</v>
       </c>
-      <c r="G2" s="1">
-        <v>567.756</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.107099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6132</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.107099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.806</v>
       </c>
+      <c r="E3" s="1">
+        <v>567.756</v>
+      </c>
       <c r="F3" s="1">
         <v>561.6084</v>
       </c>
-      <c r="G3" s="1">
-        <v>1129.3644</v>
-      </c>
       <c r="H3" s="1">
-        <v>20005.223</v>
+        <v>10057.0595</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.7091</v>
+        <v>10057.0595</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6132</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20005.223</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0029</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>18.3524</v>
       </c>
+      <c r="E4" s="1">
+        <v>1129.3644</v>
+      </c>
       <c r="F4" s="1">
         <v>544.8878999999999</v>
       </c>
-      <c r="G4" s="1">
-        <v>1674.2523</v>
-      </c>
       <c r="H4" s="1">
-        <v>30567.1593</v>
+        <v>20619.0326</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9184</v>
+        <v>20619.0326</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.7091</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30567.1593</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0187</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.7873</v>
       </c>
+      <c r="E5" s="1">
+        <v>1674.2523</v>
+      </c>
       <c r="F5" s="1">
         <v>562.1989</v>
       </c>
-      <c r="G5" s="1">
-        <v>2236.4512</v>
-      </c>
       <c r="H5" s="1">
-        <v>39574.2273</v>
+        <v>29626.062</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8855</v>
+        <v>29626.062</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9184</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39574.2273</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0245</v>
+        <v>-0.0324</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>18.1269</v>
       </c>
+      <c r="E6" s="1">
+        <v>2236.4512</v>
+      </c>
       <c r="F6" s="1">
         <v>551.6663</v>
       </c>
-      <c r="G6" s="1">
-        <v>2788.1175</v>
-      </c>
       <c r="H6" s="1">
-        <v>50277.8439</v>
+        <v>40329.7005</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9332</v>
+        <v>40329.7005</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8855</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50277.8439</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0142</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.8817</v>
       </c>
+      <c r="E7" s="1">
+        <v>2788.1175</v>
+      </c>
       <c r="F7" s="1">
         <v>559.2309</v>
       </c>
-      <c r="G7" s="1">
-        <v>3347.3484</v>
-      </c>
       <c r="H7" s="1">
-        <v>59545.9813</v>
+        <v>49597.822</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9246</v>
+        <v>49597.822</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9332</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59545.9813</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0121</v>
+        <v>-0.0145</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,38 +1026,38 @@
       <c r="D8" s="1">
         <v>17.8917</v>
       </c>
+      <c r="E8" s="1">
+        <v>3347.3484</v>
+      </c>
       <c r="F8" s="1">
         <v>558.9184</v>
       </c>
-      <c r="G8" s="1">
-        <v>3906.2668</v>
-      </c>
       <c r="H8" s="1">
-        <v>69527.6431</v>
+        <v>59579.4548</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9199</v>
+        <v>59579.4548</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9246</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69527.6431</v>
       </c>
       <c r="Q8" s="3">
         <v>-0.0003</v>
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>16.2541</v>
       </c>
+      <c r="E9" s="1">
+        <v>3906.2668</v>
+      </c>
       <c r="F9" s="1">
         <v>615.2294000000001</v>
       </c>
-      <c r="G9" s="1">
-        <v>4521.4962</v>
-      </c>
       <c r="H9" s="1">
-        <v>73111.6893</v>
+        <v>63163.5532</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6933</v>
+        <v>63163.5532</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>17.9199</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.5</v>
       </c>
-      <c r="L9" s="1">
-        <v>1757.8201</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-8242.179899999999</v>
+        <v>1506.3068</v>
       </c>
       <c r="O9" s="1">
-        <v>1757.8201</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>74869.5094</v>
+        <v>-8493.6932</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0586</v>
+        <v>-0.0922</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.4549</v>
       </c>
+      <c r="E10" s="1">
+        <v>4521.4962</v>
+      </c>
       <c r="F10" s="1">
-        <v>675.4787</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5196.9749</v>
+        <v>671.4101000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>79901.9293</v>
+        <v>69516.6477</v>
       </c>
       <c r="I10" s="1">
-        <v>90439.455</v>
+        <v>1506.3068</v>
       </c>
       <c r="J10" s="1">
-        <v>17.4023</v>
+        <v>71022.95450000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80376.57670000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.7765</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10439.455</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1318.3651</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>81220.2944</v>
+        <v>-10376.5767</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.043</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>15.6183</v>
       </c>
+      <c r="E11" s="1">
+        <v>5192.9064</v>
+      </c>
       <c r="F11" s="1">
-        <v>668.4117</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5865.3866</v>
+        <v>664.3858</v>
       </c>
       <c r="H11" s="1">
-        <v>91132.2711</v>
+        <v>80683.7439</v>
       </c>
       <c r="I11" s="1">
-        <v>100878.91</v>
+        <v>1129.7301</v>
       </c>
       <c r="J11" s="1">
-        <v>17.199</v>
+        <v>81813.474</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90753.1534</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.4764</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10439.455</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>878.91</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>92011.1811</v>
+        <v>-10376.5767</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.008699999999999999</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>16.0526</v>
       </c>
+      <c r="E12" s="1">
+        <v>5857.2922</v>
+      </c>
       <c r="F12" s="1">
-        <v>650.328</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6515.7146</v>
+        <v>646.4109999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>104051.4008</v>
+        <v>93536.85550000001</v>
       </c>
       <c r="I12" s="1">
-        <v>111318.3651</v>
+        <v>753.1534</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0846</v>
+        <v>94290.0089</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101129.7301</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.2656</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10439.455</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>439.455</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>104490.8558</v>
+        <v>-10376.5767</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0243</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.7562</v>
       </c>
+      <c r="E13" s="1">
+        <v>6503.7031</v>
+      </c>
       <c r="F13" s="1">
-        <v>662.5617</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7178.2763</v>
+        <v>658.571</v>
       </c>
       <c r="H13" s="1">
-        <v>112515.8919</v>
+        <v>101942.2945</v>
       </c>
       <c r="I13" s="1">
-        <v>121757.8201</v>
+        <v>376.5767</v>
       </c>
       <c r="J13" s="1">
-        <v>16.962</v>
+        <v>102318.8712</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111506.3068</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.145</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10439.455</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>112515.8919</v>
+        <v>-10376.5767</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0172</v>
+        <v>-0.0189</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.3605</v>
       </c>
+      <c r="E14" s="1">
+        <v>7162.2741</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7178.2763</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6503.7031</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109445.2786</v>
       </c>
       <c r="I14" s="1">
-        <v>121757.8201</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.962</v>
+        <v>109445.2786</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111506.3068</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.5686</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>109689.8045</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>109689.8045</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109689.8045</v>
+        <v>99381.78660000001</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1047</v>
+        <v>-0.0256</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.6132</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>567.756</v>
       </c>
       <c r="G2" s="1">
-        <v>567.756</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.107099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6132</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.107099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.806</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>567.756</v>
       </c>
       <c r="F3" s="1">
         <v>561.3136</v>
       </c>
       <c r="G3" s="1">
-        <v>1129.0696</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10057.0595</v>
       </c>
       <c r="I3" s="1">
-        <v>19994.7498</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.709</v>
+        <v>10057.0595</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9994.7498</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.604</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9994.7498</v>
       </c>
-      <c r="O3" s="1">
-        <v>5.2502</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20005.2502</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0029</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>18.3524</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1129.0696</v>
       </c>
       <c r="F4" s="1">
         <v>514.1178</v>
       </c>
       <c r="G4" s="1">
-        <v>1643.1873</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20613.6493</v>
       </c>
       <c r="I4" s="1">
-        <v>29430.0445</v>
+        <v>5.2502</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9103</v>
+        <v>20618.8996</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19430.0445</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.2089</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9435.2947</v>
       </c>
-      <c r="O4" s="1">
-        <v>569.9555</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30569.9555</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0188</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.7873</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1643.1873</v>
       </c>
       <c r="F5" s="1">
         <v>594.2417</v>
       </c>
       <c r="G5" s="1">
-        <v>2237.4291</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>39591.5309</v>
+        <v>29076.3644</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>569.9555</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8777</v>
+        <v>29646.3199</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.2572</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10569.9555</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39591.5309</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0241</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>18.1269</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2237.4291</v>
       </c>
       <c r="F6" s="1">
         <v>535.2808</v>
       </c>
       <c r="G6" s="1">
-        <v>2772.7099</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40347.3344</v>
       </c>
       <c r="I6" s="1">
-        <v>49702.982</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9258</v>
+        <v>40347.3344</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39702.982</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.7449</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9702.982</v>
       </c>
-      <c r="O6" s="1">
-        <v>297.018</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50297.018</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0142</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.8817</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2772.7099</v>
       </c>
       <c r="F7" s="1">
         <v>575.8411</v>
       </c>
       <c r="G7" s="1">
-        <v>3348.551</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>59567.3736</v>
+        <v>49323.7361</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>297.018</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9182</v>
+        <v>49620.7541</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.0329</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10297.018</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59567.3736</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0121</v>
+        <v>-0.0144</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,40 +1774,40 @@
         <v>17.8917</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3348.551</v>
       </c>
       <c r="F8" s="1">
         <v>558.9184</v>
       </c>
       <c r="G8" s="1">
-        <v>3907.4694</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>69549.0474</v>
+        <v>59600.8591</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9144</v>
+        <v>59600.8591</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9182</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69549.0474</v>
       </c>
       <c r="Q8" s="3">
         <v>-0.0003</v>
@@ -1836,43 +1827,43 @@
         <v>16.2541</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3907.4694</v>
       </c>
       <c r="F9" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4522.6988</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>73131.1344</v>
+        <v>63182.9983</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6886</v>
+        <v>63182.9983</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>17.9144</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.5</v>
       </c>
-      <c r="L9" s="1">
-        <v>1758.3612</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-8241.638800000001</v>
+        <v>1506.8479</v>
       </c>
       <c r="O9" s="1">
-        <v>1758.3612</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>74889.49559999999</v>
+        <v>-8493.152099999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0586</v>
+        <v>-0.0922</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.4549</v>
       </c>
       <c r="E10" s="1">
+        <v>4522.6988</v>
+      </c>
+      <c r="F10" s="1">
+        <v>744.5436999999999</v>
+      </c>
+      <c r="G10" s="1">
         <v>90000</v>
       </c>
-      <c r="F10" s="1">
-        <v>760.8176999999999</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5283.5164</v>
-      </c>
       <c r="H10" s="1">
-        <v>81232.4803</v>
+        <v>69535.1366</v>
       </c>
       <c r="I10" s="1">
-        <v>91758.3612</v>
+        <v>1506.8479</v>
       </c>
       <c r="J10" s="1">
-        <v>17.3669</v>
+        <v>71041.9846</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81506.84789999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.0217</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-11758.3612</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>81232.4803</v>
+        <v>-11506.8479</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0431</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>15.6183</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5267.2424</v>
       </c>
       <c r="F11" s="1">
         <v>640.2745</v>
       </c>
       <c r="G11" s="1">
-        <v>5923.791</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>92039.7178</v>
+        <v>81838.7258</v>
       </c>
       <c r="I11" s="1">
-        <v>101758.3612</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.1779</v>
+        <v>81838.7258</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91506.84789999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.3728</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>92039.7178</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>16.0526</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5907.517</v>
       </c>
       <c r="F12" s="1">
         <v>622.952</v>
       </c>
       <c r="G12" s="1">
-        <v>6546.743</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>104546.9036</v>
+        <v>94338.9109</v>
       </c>
       <c r="I12" s="1">
-        <v>111758.3612</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0708</v>
+        <v>94338.9109</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101506.8479</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.1827</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>104546.9036</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0246</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.7562</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6530.469</v>
       </c>
       <c r="F13" s="1">
         <v>634.6708</v>
       </c>
       <c r="G13" s="1">
-        <v>7181.4138</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>112565.0712</v>
+        <v>102361.8367</v>
       </c>
       <c r="I13" s="1">
-        <v>121758.3612</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.9547</v>
+        <v>102361.8367</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111506.8479</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0749</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>112565.0712</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0173</v>
+        <v>-0.0189</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>15.3605</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7165.1398</v>
       </c>
       <c r="F14" s="1">
-        <v>-7181.4138</v>
+        <v>-7165.1398</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109489.0686</v>
       </c>
       <c r="I14" s="1">
-        <v>121758.3612</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.9547</v>
+        <v>109489.0686</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111506.8479</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.5624</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>109737.7485</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>109737.7485</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109737.7485</v>
+        <v>109489.0686</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1047</v>
+        <v>-0.0256</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.6132</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>567.756</v>
       </c>
       <c r="G2" s="1">
-        <v>567.756</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.107099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6132</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.107099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.806</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>567.756</v>
       </c>
       <c r="F3" s="1">
         <v>564.1363</v>
       </c>
       <c r="G3" s="1">
-        <v>1131.8923</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10057.0595</v>
       </c>
       <c r="I3" s="1">
-        <v>20045.0103</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.7093</v>
+        <v>10057.0595</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10045.0103</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6925</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10045.0103</v>
       </c>
-      <c r="O3" s="1">
-        <v>-45.0103</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20004.9897</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0029</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>18.3524</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1131.8923</v>
       </c>
       <c r="F4" s="1">
         <v>519.5247000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1651.417</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20665.1834</v>
       </c>
       <c r="I4" s="1">
-        <v>29579.5356</v>
+        <v>-45.0103</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9116</v>
+        <v>20620.1731</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19579.5356</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.2981</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9534.525299999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>420.4644</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30570.7144</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0189</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.7873</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1651.417</v>
       </c>
       <c r="F5" s="1">
         <v>585.8373</v>
       </c>
       <c r="G5" s="1">
-        <v>2237.2543</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>39588.4387</v>
+        <v>29221.9885</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>420.4644</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8791</v>
+        <v>29642.4529</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1662</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10420.4644</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39588.4387</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0242</v>
+        <v>-0.0319</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>18.1269</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2237.2543</v>
       </c>
       <c r="F6" s="1">
         <v>551.6663</v>
       </c>
       <c r="G6" s="1">
-        <v>2788.9206</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50292.3266</v>
+        <v>40344.1832</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9281</v>
+        <v>40344.1832</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8791</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50292.3266</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0142</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.8817</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2788.9206</v>
       </c>
       <c r="F7" s="1">
         <v>559.2309</v>
       </c>
       <c r="G7" s="1">
-        <v>3348.1516</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>59560.2681</v>
+        <v>49612.1088</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9203</v>
+        <v>49612.1088</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9281</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59560.2681</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0121</v>
+        <v>-0.0145</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,40 +2542,40 @@
         <v>17.8917</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3348.1516</v>
       </c>
       <c r="F8" s="1">
         <v>558.9184</v>
       </c>
       <c r="G8" s="1">
-        <v>3907.0699</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>69541.9379</v>
+        <v>59593.7497</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9162</v>
+        <v>59593.7497</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9203</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69541.9379</v>
       </c>
       <c r="Q8" s="3">
         <v>-0.0003</v>
@@ -2610,43 +2595,43 @@
         <v>16.2541</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3907.0699</v>
       </c>
       <c r="F9" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4522.2993</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>73124.67570000001</v>
+        <v>63176.5396</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6901</v>
+        <v>63176.5396</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>17.9162</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.5</v>
       </c>
-      <c r="L9" s="1">
-        <v>1758.1815</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-8241.818499999999</v>
+        <v>1506.6682</v>
       </c>
       <c r="O9" s="1">
-        <v>1758.1815</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>74882.8572</v>
+        <v>-8493.3318</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0586</v>
+        <v>-0.0922</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.4549</v>
       </c>
       <c r="E10" s="1">
+        <v>4522.2993</v>
+      </c>
+      <c r="F10" s="1">
+        <v>744.532</v>
+      </c>
+      <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
-      <c r="F10" s="1">
-        <v>760.8061</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5283.1054</v>
-      </c>
       <c r="H10" s="1">
-        <v>81226.16039999999</v>
+        <v>69528.9955</v>
       </c>
       <c r="I10" s="1">
-        <v>91758.18150000001</v>
+        <v>1506.6682</v>
       </c>
       <c r="J10" s="1">
-        <v>17.3682</v>
+        <v>71035.6637</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81506.6682</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.0233</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-11758.1815</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>81226.16039999999</v>
+        <v>-11506.6682</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0431</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>15.6183</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5266.8314</v>
       </c>
       <c r="F11" s="1">
         <v>640.2745</v>
       </c>
       <c r="G11" s="1">
-        <v>5923.3799</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>92033.3311</v>
+        <v>81832.33900000001</v>
       </c>
       <c r="I11" s="1">
-        <v>101758.1815</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.1791</v>
+        <v>81832.33900000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91506.6682</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.3741</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>92033.3311</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>16.0526</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5907.1059</v>
       </c>
       <c r="F12" s="1">
         <v>622.952</v>
       </c>
       <c r="G12" s="1">
-        <v>6546.332</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>104540.3393</v>
+        <v>94332.3466</v>
       </c>
       <c r="I12" s="1">
-        <v>111758.1815</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0719</v>
+        <v>94332.3466</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101506.6682</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.1838</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>104540.3393</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0246</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.7562</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6530.058</v>
       </c>
       <c r="F13" s="1">
         <v>634.6708</v>
       </c>
       <c r="G13" s="1">
-        <v>7181.0028</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>112558.628</v>
+        <v>102355.3936</v>
       </c>
       <c r="I13" s="1">
-        <v>121758.1815</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.9556</v>
+        <v>102355.3936</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111506.6682</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0759</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>112558.628</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0173</v>
+        <v>-0.0189</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>15.3605</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7164.7288</v>
       </c>
       <c r="F14" s="1">
-        <v>-7181.0028</v>
+        <v>-7164.7288</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109482.7873</v>
       </c>
       <c r="I14" s="1">
-        <v>121758.1815</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.9556</v>
+        <v>109482.7873</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111506.6682</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.5633</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>109731.4672</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>109731.4672</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109731.4672</v>
+        <v>109482.7873</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1047</v>
+        <v>-0.0256</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.6132</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>567.756</v>
       </c>
       <c r="G2" s="1">
-        <v>567.756</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.107099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6132</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.107099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.806</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>567.756</v>
       </c>
       <c r="F3" s="1">
         <v>561.6084</v>
       </c>
       <c r="G3" s="1">
-        <v>1129.3644</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20005.223</v>
+        <v>10057.0595</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.7091</v>
+        <v>10057.0595</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6132</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20005.223</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0029</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>18.3524</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1129.3644</v>
       </c>
       <c r="F4" s="1">
         <v>530.3095</v>
       </c>
       <c r="G4" s="1">
-        <v>1659.674</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20619.0326</v>
       </c>
       <c r="I4" s="1">
-        <v>29732.4529</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9146</v>
+        <v>20619.0326</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19732.4529</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.4722</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9732.4529</v>
       </c>
-      <c r="O4" s="1">
-        <v>267.5471</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30568.5471</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0188</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.7873</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1659.674</v>
       </c>
       <c r="F5" s="1">
         <v>577.2403</v>
       </c>
       <c r="G5" s="1">
-        <v>2236.9143</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>39582.4228</v>
+        <v>29368.0972</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>267.5471</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8818</v>
+        <v>29635.6444</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.0758</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10267.5471</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39582.4228</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0243</v>
+        <v>-0.0321</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>18.1269</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2236.9143</v>
       </c>
       <c r="F6" s="1">
         <v>551.6663</v>
       </c>
       <c r="G6" s="1">
-        <v>2788.5806</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>50286.1958</v>
+        <v>40338.0525</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9303</v>
+        <v>40338.0525</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8818</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50286.1958</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0142</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.8817</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2788.5806</v>
       </c>
       <c r="F7" s="1">
         <v>559.2309</v>
       </c>
       <c r="G7" s="1">
-        <v>3347.8116</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>59554.2203</v>
+        <v>49606.061</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9222</v>
+        <v>49606.061</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9303</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59554.2203</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0121</v>
+        <v>-0.0145</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,40 +3310,40 @@
         <v>17.8917</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3347.8116</v>
       </c>
       <c r="F8" s="1">
         <v>558.9184</v>
       </c>
       <c r="G8" s="1">
-        <v>3906.73</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>69535.8867</v>
+        <v>59587.6984</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9178</v>
+        <v>59587.6984</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9222</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69535.8867</v>
       </c>
       <c r="Q8" s="3">
         <v>-0.0003</v>
@@ -3384,43 +3363,43 @@
         <v>16.2541</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3906.73</v>
       </c>
       <c r="F9" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4521.9594</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>73119.1784</v>
+        <v>63171.0422</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6914</v>
+        <v>63171.0422</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>17.9178</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.5</v>
       </c>
-      <c r="L9" s="1">
-        <v>1758.0285</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-8241.9715</v>
+        <v>1506.5152</v>
       </c>
       <c r="O9" s="1">
-        <v>1758.0285</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>74877.2069</v>
+        <v>-8493.4848</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0586</v>
+        <v>-0.0922</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.4549</v>
       </c>
       <c r="E10" s="1">
+        <v>4521.9594</v>
+      </c>
+      <c r="F10" s="1">
+        <v>744.5221</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>760.7962</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5282.7555</v>
-      </c>
       <c r="H10" s="1">
-        <v>81220.78109999999</v>
+        <v>69523.76850000001</v>
       </c>
       <c r="I10" s="1">
-        <v>91758.0285</v>
+        <v>1506.5152</v>
       </c>
       <c r="J10" s="1">
-        <v>17.3693</v>
+        <v>71030.2837</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81506.51519999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.0246</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-11758.0285</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>81220.78109999999</v>
+        <v>-11506.5152</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0431</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>15.6183</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5266.4815</v>
       </c>
       <c r="F11" s="1">
         <v>640.2745</v>
       </c>
       <c r="G11" s="1">
-        <v>5923.0301</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>92027.895</v>
+        <v>81826.9029</v>
       </c>
       <c r="I11" s="1">
-        <v>101758.0285</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.1801</v>
+        <v>81826.9029</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91506.51519999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.3753</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>92027.895</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>16.0526</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5906.756</v>
       </c>
       <c r="F12" s="1">
         <v>622.952</v>
       </c>
       <c r="G12" s="1">
-        <v>6545.9821</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>104534.752</v>
+        <v>94326.75930000001</v>
       </c>
       <c r="I12" s="1">
-        <v>111758.0285</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0728</v>
+        <v>94326.75930000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101506.5152</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.1848</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>104534.752</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0246</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.7562</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6529.7081</v>
       </c>
       <c r="F13" s="1">
         <v>634.6708</v>
       </c>
       <c r="G13" s="1">
-        <v>7180.6529</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>112553.1439</v>
+        <v>102349.9095</v>
       </c>
       <c r="I13" s="1">
-        <v>121758.0285</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.9564</v>
+        <v>102349.9095</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111506.5152</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0768</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>112553.1439</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0173</v>
+        <v>-0.0189</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>15.3605</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7164.3789</v>
       </c>
       <c r="F14" s="1">
-        <v>-7180.6529</v>
+        <v>-7164.3789</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109477.4409</v>
       </c>
       <c r="I14" s="1">
-        <v>121758.0285</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.9564</v>
+        <v>109477.4409</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111506.5152</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.564</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>109726.1209</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>109726.1209</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109726.1209</v>
+        <v>109477.4409</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1047</v>
+        <v>-0.0256</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.6132</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>567.756</v>
       </c>
       <c r="G2" s="1">
-        <v>567.756</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.107099999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6132</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.107099999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.806</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>567.756</v>
       </c>
       <c r="F3" s="1">
         <v>561.6084</v>
       </c>
       <c r="G3" s="1">
-        <v>1129.3644</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20005.223</v>
+        <v>10057.0595</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.7091</v>
+        <v>10057.0595</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6132</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20005.223</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0029</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>18.3524</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1129.3644</v>
       </c>
       <c r="F4" s="1">
         <v>538.5939</v>
       </c>
       <c r="G4" s="1">
-        <v>1667.9584</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20619.0326</v>
       </c>
       <c r="I4" s="1">
-        <v>29884.4915</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9168</v>
+        <v>20619.0326</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19884.4915</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.6068</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9884.4915</v>
       </c>
-      <c r="O4" s="1">
-        <v>115.5085</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30567.7585</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0187</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.7873</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1667.9584</v>
       </c>
       <c r="F5" s="1">
         <v>568.6926999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2236.6511</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>39577.7656</v>
+        <v>29514.6906</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>115.5085</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8839</v>
+        <v>29630.199</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9861</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10115.5085</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39577.7656</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0244</v>
+        <v>-0.0323</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>18.1269</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2236.6511</v>
       </c>
       <c r="F6" s="1">
         <v>551.6663</v>
       </c>
       <c r="G6" s="1">
-        <v>2788.3174</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>50281.4497</v>
+        <v>40333.3063</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.932</v>
+        <v>40333.3063</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8839</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50281.4497</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0142</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.8817</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2788.3174</v>
       </c>
       <c r="F7" s="1">
         <v>559.2309</v>
       </c>
       <c r="G7" s="1">
-        <v>3347.5484</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>59549.5384</v>
+        <v>49601.3791</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9236</v>
+        <v>49601.3791</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.932</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59549.5384</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0121</v>
+        <v>-0.0145</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,40 +4078,40 @@
         <v>17.8917</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3347.5484</v>
       </c>
       <c r="F8" s="1">
         <v>558.9184</v>
       </c>
       <c r="G8" s="1">
-        <v>3906.4668</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>69531.20209999999</v>
+        <v>59583.0138</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.919</v>
+        <v>59583.0138</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9236</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69531.20209999999</v>
       </c>
       <c r="Q8" s="3">
         <v>-0.0003</v>
@@ -4158,43 +4131,43 @@
         <v>16.2541</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3906.4668</v>
       </c>
       <c r="F9" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4521.6962</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73114.92260000001</v>
+        <v>63166.7864</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6925</v>
+        <v>63166.7864</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>17.919</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.5</v>
       </c>
-      <c r="L9" s="1">
-        <v>1757.91</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-8242.09</v>
+        <v>1506.3968</v>
       </c>
       <c r="O9" s="1">
-        <v>1757.91</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>74872.83259999999</v>
+        <v>-8493.6032</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0586</v>
+        <v>-0.0922</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.4549</v>
       </c>
       <c r="E10" s="1">
+        <v>4521.6962</v>
+      </c>
+      <c r="F10" s="1">
+        <v>744.5145</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>760.7885</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5282.4847</v>
-      </c>
       <c r="H10" s="1">
-        <v>81216.6168</v>
+        <v>69519.72199999999</v>
       </c>
       <c r="I10" s="1">
-        <v>91757.91</v>
+        <v>1506.3968</v>
       </c>
       <c r="J10" s="1">
-        <v>17.3702</v>
+        <v>71026.1188</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81506.3968</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.0256</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-11757.91</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>81216.6168</v>
+        <v>-11506.3968</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0431</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>15.6183</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5266.2106</v>
       </c>
       <c r="F11" s="1">
         <v>640.2745</v>
       </c>
       <c r="G11" s="1">
-        <v>5922.7592</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>92023.6866</v>
+        <v>81822.6945</v>
       </c>
       <c r="I11" s="1">
-        <v>101757.91</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.1808</v>
+        <v>81822.6945</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91506.3968</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.3761</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>92023.6866</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>16.0526</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5906.4852</v>
       </c>
       <c r="F12" s="1">
         <v>622.952</v>
       </c>
       <c r="G12" s="1">
-        <v>6545.7112</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>104530.4266</v>
+        <v>94322.4339</v>
       </c>
       <c r="I12" s="1">
-        <v>111757.91</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0735</v>
+        <v>94322.4339</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101506.3968</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.1856</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>104530.4266</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0246</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.7562</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6529.4372</v>
       </c>
       <c r="F13" s="1">
         <v>634.6708</v>
       </c>
       <c r="G13" s="1">
-        <v>7180.382</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>112548.8983</v>
+        <v>102345.6639</v>
       </c>
       <c r="I13" s="1">
-        <v>121757.91</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.957</v>
+        <v>102345.6639</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111506.3968</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0775</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>112548.8983</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0173</v>
+        <v>-0.0189</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>15.3605</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7164.108</v>
       </c>
       <c r="F14" s="1">
-        <v>-7180.382</v>
+        <v>-7164.108</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>109473.302</v>
       </c>
       <c r="I14" s="1">
-        <v>121757.91</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.957</v>
+        <v>109473.302</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111506.3968</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.5646</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>109721.9819</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>109721.9819</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109721.9819</v>
+        <v>109473.302</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1047</v>
+        <v>-0.0256</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4454,7 @@
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.3191</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.962</v>
+        <v>15.5686</v>
       </c>
       <c r="D3" s="1">
-        <v>16.9547</v>
+        <v>15.5624</v>
       </c>
       <c r="E3" s="1">
-        <v>16.9556</v>
+        <v>15.5633</v>
       </c>
       <c r="F3" s="1">
-        <v>16.9564</v>
+        <v>15.564</v>
       </c>
       <c r="G3" s="1">
-        <v>16.957</v>
+        <v>15.5646</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.1289</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1916</v>
+        <v>-0.125</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1908</v>
+        <v>-0.1241</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1909</v>
+        <v>-0.1242</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1911</v>
+        <v>-0.1244</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1912</v>
+        <v>-0.1246</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1176</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1243</v>
+        <v>0.1108</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1244</v>
+        <v>0.1108</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1244</v>
+        <v>0.1109</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1244</v>
+        <v>0.1109</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1244</v>
+        <v>0.1109</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-1.2694</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.7052</v>
+        <v>-1.3112</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.6965</v>
+        <v>-1.3032</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.6976</v>
+        <v>-1.304</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.6991</v>
+        <v>-1.3057</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.7001</v>
+        <v>-1.3067</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1555</v>
+        <v>-0.3022</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1544</v>
+        <v>-0.158</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1544</v>
+        <v>-0.158</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1545</v>
+        <v>-0.1581</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1545</v>
+        <v>-0.1581</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1757.8201</v>
+        <v>1506.3068</v>
       </c>
       <c r="D8" s="1">
-        <v>1758.3612</v>
+        <v>1506.8479</v>
       </c>
       <c r="E8" s="1">
-        <v>1758.1815</v>
+        <v>1506.6682</v>
       </c>
       <c r="F8" s="1">
-        <v>1758.0285</v>
+        <v>1506.5152</v>
       </c>
       <c r="G8" s="1">
-        <v>1757.91</v>
+        <v>1506.3968</v>
       </c>
     </row>
   </sheetData>
